--- a/www/terminologies/CodeSystem-terminologie-bdpm.xlsx
+++ b/www/terminologies/CodeSystem-terminologie-bdpm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="103">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2025-03-04</t>
+    <t>2025-06-02</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,7 +67,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-06T00:00:00+00:00</t>
+    <t>2025-06-03T00:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,6 +76,12 @@
     <t>Agence du numérique en santé</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -115,7 +121,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>41199</t>
+    <t>41170</t>
   </si>
   <si>
     <t>Code</t>
@@ -450,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -544,72 +550,80 @@
       <c r="A11" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
       </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s" s="2">
         <v>30</v>
       </c>
+      <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" t="s" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s" s="2">
         <v>33</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -627,332 +641,332 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="D27" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="D27" t="s" s="2">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -970,13 +984,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s" s="1">
         <v>1</v>
@@ -984,38 +998,38 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/www/terminologies/CodeSystem-terminologie-bdpm.xlsx
+++ b/www/terminologies/CodeSystem-terminologie-bdpm.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2025-06-02</t>
+    <t>2025-07-01</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,7 +67,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T00:00:00+00:00</t>
+    <t>2025-07-02T00:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -121,7 +121,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>41170</t>
+    <t>41109</t>
   </si>
   <si>
     <t>Code</t>

--- a/www/terminologies/CodeSystem-terminologie-bdpm.xlsx
+++ b/www/terminologies/CodeSystem-terminologie-bdpm.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2025-07-01</t>
+    <t>2025-10-01</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,7 +67,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-02T00:00:00+00:00</t>
+    <t>2025-10-01T00:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -121,7 +121,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>41109</t>
+    <t>41118</t>
   </si>
   <si>
     <t>Code</t>

--- a/www/terminologies/CodeSystem-terminologie-bdpm.xlsx
+++ b/www/terminologies/CodeSystem-terminologie-bdpm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="105">
   <si>
     <t>Property</t>
   </si>
@@ -85,10 +85,16 @@
     <t>Description</t>
   </si>
   <si>
+    <t>LA BDPM est un des référentiels du médicament gérée et distribuée par l’ANSM. Elle recense l’ensemble des spécialités et des présentations effectivement commercialisées durant les 5 dernières années. De ce fait, elle ne propose pas un historique exhaustif des codes de présentation et spécialités, celui-ci peut être obtenu grâce à la base RCP disponible sur le site de l’ANSM</t>
+  </si>
+  <si>
     <t>Purpose</t>
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>[LOv2](https://github.com/etalab/licence-ouverte/blob/master/LO.md)</t>
   </si>
   <si>
     <t>Case Sensitive</t>
@@ -558,72 +564,76 @@
       <c r="A12" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>26</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -641,332 +651,332 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>22</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="D27" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="D27" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -984,13 +994,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>22</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s" s="1">
         <v>1</v>
@@ -998,38 +1008,38 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/www/terminologies/CodeSystem-terminologie-bdpm.xlsx
+++ b/www/terminologies/CodeSystem-terminologie-bdpm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="101">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2025-10-01</t>
+    <t>2025-12-03</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,7 +67,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T00:00:00+00:00</t>
+    <t>2025-12-03T00:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>41118</t>
+    <t>41229</t>
   </si>
   <si>
     <t>Code</t>
@@ -146,18 +146,6 @@
   </si>
   <si>
     <t>code</t>
-  </si>
-  <si>
-    <t>etat_commercialisation</t>
-  </si>
-  <si>
-    <t>http://www.data.esante.gouv.fr/ANSM/BDPM-core-ontology/etat_commercialisation</t>
-  </si>
-  <si>
-    <t>statut_CIP</t>
-  </si>
-  <si>
-    <t>http://www.data.esante.gouv.fr/ANSM/BDPM-core-ontology/statut_CIP</t>
   </si>
   <si>
     <t>date_commercialisation</t>
@@ -643,7 +631,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -684,43 +672,43 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -732,7 +720,7 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -744,31 +732,31 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
@@ -780,7 +768,7 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
@@ -804,7 +792,7 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
@@ -816,7 +804,7 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -828,7 +816,7 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
@@ -840,7 +828,7 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
@@ -852,7 +840,7 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
@@ -876,7 +864,7 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20">
@@ -888,7 +876,7 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21">
@@ -900,7 +888,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
@@ -910,73 +898,49 @@
       <c r="B22" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" t="s" s="2">
+        <v>87</v>
+      </c>
       <c r="D22" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="D23" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>43</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="B25" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="D25" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="D25" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="D26" t="s" s="2">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="D27" t="s" s="2">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1000,7 +964,7 @@
         <v>22</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s" s="1">
         <v>1</v>
@@ -1008,38 +972,38 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
